--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>233269.7701830221</v>
+        <v>301247.5912151367</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11391437.76547035</v>
+        <v>11317521.05815615</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10676351.96705204</v>
+        <v>12307908.80339596</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8245836.008481864</v>
+        <v>7506028.002094192</v>
       </c>
     </row>
     <row r="11">
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>130.9356567043871</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987943</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>197.1398351734597</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>11.2539292415655</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3343964518635</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H12" t="n">
-        <v>92.83156789269788</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705011</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S12" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>192.0665623188214</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8092030868072</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>20.64107630343887</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2271541212006</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V13" t="n">
-        <v>222.5732828824932</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>321.7380056559347</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987943</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>28.1947492807137</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>89.23554696336339</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705011</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S15" t="n">
-        <v>134.364635083861</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195736</v>
+        <v>20.64107630343883</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>21.05216411821145</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.547702772954</v>
+        <v>348.9869254735573</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>29.4610738031287</v>
+        <v>94.24014755885167</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U17" t="n">
-        <v>251.045250128462</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.22295923705011</v>
+        <v>12.50249639140902</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T18" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609205</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>74.08452731855671</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.7486959972119</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>152.201274672124</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.547702772954</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>113.1303940008002</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>206.6581849802338</v>
+        <v>80.42683251501482</v>
       </c>
       <c r="U20" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,25 +2162,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.3343964518635</v>
+        <v>103.4979677934367</v>
       </c>
       <c r="H21" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.22295923705013</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>59.8235604448445</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7486959972119</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>148.2329723856072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,16 +2326,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>42.67465431425338</v>
       </c>
       <c r="G23" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>142.6982830136712</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H24" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269695</v>
       </c>
       <c r="I24" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.781160222249209</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
         <v>194.6624603617375</v>
@@ -2532,19 +2532,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>47.64100072776615</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>116.5608127979821</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>240.7862479198122</v>
       </c>
       <c r="H26" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I27" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>192.0665623188214</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8092030868081</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>243.433257758123</v>
       </c>
       <c r="X28" t="n">
-        <v>110.3838034696614</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>64.77750115722826</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>141.9549055540761</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2888,7 +2888,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H30" t="n">
-        <v>92.83156789269697</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I30" t="n">
         <v>20.22295923705013</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.98862953039805</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>103.8524426671497</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>54.72594858344429</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>276.104047530253</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.045250128462</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>200.0802987993978</v>
+        <v>56.23755173264404</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>142.0855840104603</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>363.3411596266369</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>206.6581849802338</v>
@@ -3325,10 +3325,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H36" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269653</v>
       </c>
       <c r="I36" t="n">
         <v>20.22295923705013</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>49.71101845020895</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>171.1971464172153</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>316.0900875490368</v>
       </c>
       <c r="E38" t="n">
-        <v>334.5850598213791</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3343964518633</v>
       </c>
       <c r="H39" t="n">
         <v>92.83156789269626</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.3066000448042</v>
@@ -3717,19 +3717,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
-        <v>176.1581058090403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>208.7887753295811</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>172.4430530042535</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>96.99454088363061</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>116.7550504648075</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>118.1692128216233</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>138.1457046486332</v>
+        <v>371.9132837742258</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.045250128462</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H45" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269609</v>
       </c>
       <c r="I45" t="n">
         <v>20.22295923705013</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>111.8323952847927</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>103.3387326418232</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1263.725694231566</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="C11" t="n">
-        <v>1263.725694231566</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="D11" t="n">
-        <v>1263.725694231566</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="E11" t="n">
-        <v>877.9374416333219</v>
+        <v>419.733006062639</v>
       </c>
       <c r="F11" t="n">
-        <v>466.9515368437143</v>
+        <v>153.355349495461</v>
       </c>
       <c r="G11" t="n">
-        <v>51.24678656800314</v>
+        <v>153.355349495461</v>
       </c>
       <c r="H11" t="n">
-        <v>51.24678656800314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J11" t="n">
-        <v>187.528182236282</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816086</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872922</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923563</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230818</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O11" t="n">
-        <v>2055.228484740841</v>
+        <v>888.5149683358412</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764999</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.250581723852</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400157</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S11" t="n">
-        <v>2437.640120926627</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T11" t="n">
-        <v>2437.640120926627</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U11" t="n">
-        <v>2184.059060190807</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V11" t="n">
-        <v>1852.996172847236</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W11" t="n">
-        <v>1653.865026207378</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X11" t="n">
-        <v>1653.865026207378</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="Y11" t="n">
-        <v>1263.725694231566</v>
+        <v>686.1106626298169</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966403</v>
+        <v>169.8614021455639</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155133</v>
+        <v>169.8614021455639</v>
       </c>
       <c r="D12" t="n">
-        <v>607.916702154262</v>
+        <v>169.8614021455639</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488065</v>
+        <v>169.8614021455639</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756915</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4432786182536</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057901</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5972052500114</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K12" t="n">
-        <v>560.1394111735144</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L12" t="n">
-        <v>854.8429682049863</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M12" t="n">
-        <v>1218.104987164206</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N12" t="n">
-        <v>1605.390115761152</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O12" t="n">
-        <v>1937.460550937314</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P12" t="n">
-        <v>2447.023413292611</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.339328400157</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R12" t="n">
-        <v>2562.339328400157</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.617474780097</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.610846175227</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047139</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.368633815397</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087195</v>
+        <v>585.4732011160506</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.279776881662</v>
+        <v>377.6217009105178</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.519478116708</v>
+        <v>169.8614021455639</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>833.0891146802707</v>
+        <v>41.94668242379612</v>
       </c>
       <c r="C13" t="n">
-        <v>664.1529317523638</v>
+        <v>41.94668242379612</v>
       </c>
       <c r="D13" t="n">
-        <v>514.036292340028</v>
+        <v>41.94668242379612</v>
       </c>
       <c r="E13" t="n">
-        <v>366.1231987576349</v>
+        <v>41.94668242379612</v>
       </c>
       <c r="F13" t="n">
-        <v>219.2332512597245</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G13" t="n">
-        <v>51.24678656800314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H13" t="n">
-        <v>51.24678656800314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312206</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4064713020477</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693235</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M13" t="n">
-        <v>824.219460709659</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N13" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999035</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171024</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q13" t="n">
-        <v>1636.446120074498</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R13" t="n">
-        <v>1636.446120074498</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S13" t="n">
-        <v>1636.446120074498</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T13" t="n">
-        <v>1636.446120074498</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U13" t="n">
-        <v>1347.327782578335</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="V13" t="n">
-        <v>1122.506284717231</v>
+        <v>308.3243389909741</v>
       </c>
       <c r="W13" t="n">
-        <v>833.0891146802707</v>
+        <v>41.94668242379612</v>
       </c>
       <c r="X13" t="n">
-        <v>833.0891146802707</v>
+        <v>41.94668242379612</v>
       </c>
       <c r="Y13" t="n">
-        <v>833.0891146802707</v>
+        <v>41.94668242379612</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1588.71357873251</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="C14" t="n">
-        <v>1588.71357873251</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="D14" t="n">
-        <v>1263.725694231566</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="E14" t="n">
-        <v>877.9374416333219</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="F14" t="n">
-        <v>466.9515368437143</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="G14" t="n">
-        <v>51.24678656800315</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H14" t="n">
-        <v>51.24678656800315</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I14" t="n">
-        <v>51.24678656800315</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362817</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816084</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L14" t="n">
-        <v>795.755353087292</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.470313923563</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N14" t="n">
-        <v>1656.671415230818</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O14" t="n">
-        <v>2055.228484740841</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.886721764998</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.250581723852</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R14" t="n">
-        <v>2562.339328400157</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S14" t="n">
-        <v>2437.640120926628</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T14" t="n">
-        <v>2228.894479532452</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U14" t="n">
-        <v>1975.313418796632</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V14" t="n">
-        <v>1975.313418796632</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="W14" t="n">
-        <v>1975.313418796632</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="X14" t="n">
-        <v>1975.313418796632</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="Y14" t="n">
-        <v>1975.313418796632</v>
+        <v>403.9460998429521</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966388</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155118</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542605</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E15" t="n">
-        <v>448.679247148805</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756899</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G15" t="n">
-        <v>165.443278618252</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057901</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I15" t="n">
-        <v>51.24678656800315</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J15" t="n">
-        <v>238.4273302370162</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K15" t="n">
-        <v>614.5430248380241</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L15" t="n">
-        <v>909.2465818694959</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M15" t="n">
-        <v>1272.508600828716</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N15" t="n">
-        <v>1659.793729425661</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O15" t="n">
-        <v>1991.864164601823</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P15" t="n">
-        <v>2239.046898434121</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.339328400157</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R15" t="n">
-        <v>2562.339328400157</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.617474780096</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.610846175226</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047138</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.368633815395</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087193</v>
+        <v>318.9943252896839</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.279776881661</v>
+        <v>318.9943252896839</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.519478116707</v>
+        <v>111.23402652473</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>813.841548125043</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C16" t="n">
-        <v>644.9053651971361</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D16" t="n">
-        <v>494.7887257848004</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E16" t="n">
-        <v>346.8756322024072</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F16" t="n">
-        <v>199.9856847044969</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G16" t="n">
-        <v>199.9856847044969</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H16" t="n">
-        <v>51.24678656800315</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I16" t="n">
-        <v>51.24678656800315</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312206</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020477</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693235</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M16" t="n">
-        <v>824.219460709659</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N16" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O16" t="n">
-        <v>1383.126566999035</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P16" t="n">
-        <v>1582.113182171024</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q16" t="n">
-        <v>1636.446120074498</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R16" t="n">
-        <v>1533.86271359008</v>
+        <v>1034.005947982349</v>
       </c>
       <c r="S16" t="n">
-        <v>1533.86271359008</v>
+        <v>1034.005947982349</v>
       </c>
       <c r="T16" t="n">
-        <v>1533.86271359008</v>
+        <v>808.5369117403633</v>
       </c>
       <c r="U16" t="n">
-        <v>1244.744376093918</v>
+        <v>542.1592551731853</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.744376093918</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="W16" t="n">
-        <v>1223.4795638533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X16" t="n">
-        <v>995.4900129552827</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y16" t="n">
-        <v>995.4900129552827</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1251.460966789571</v>
+        <v>481.4333252367091</v>
       </c>
       <c r="C17" t="n">
-        <v>882.4984498491592</v>
+        <v>481.4333252367091</v>
       </c>
       <c r="D17" t="n">
-        <v>882.4984498491592</v>
+        <v>481.4333252367091</v>
       </c>
       <c r="E17" t="n">
-        <v>496.710197250915</v>
+        <v>481.4333252367091</v>
       </c>
       <c r="F17" t="n">
-        <v>496.710197250915</v>
+        <v>481.4333252367091</v>
       </c>
       <c r="G17" t="n">
-        <v>81.00544697520382</v>
+        <v>128.9212793038229</v>
       </c>
       <c r="H17" t="n">
-        <v>81.00544697520382</v>
+        <v>128.9212793038229</v>
       </c>
       <c r="I17" t="n">
-        <v>51.24678656800312</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5281822362819</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816085</v>
+        <v>269.6240911917569</v>
       </c>
       <c r="L17" t="n">
-        <v>795.7553530872915</v>
+        <v>507.2468724099484</v>
       </c>
       <c r="M17" t="n">
-        <v>1220.470313923562</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N17" t="n">
-        <v>1656.671415230818</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O17" t="n">
-        <v>2055.22848474084</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P17" t="n">
-        <v>2360.886721764998</v>
+        <v>1584.213091808873</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.250581723851</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R17" t="n">
-        <v>2562.339328400156</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S17" t="n">
-        <v>2562.339328400156</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T17" t="n">
-        <v>2562.339328400156</v>
+        <v>1474.442682189358</v>
       </c>
       <c r="U17" t="n">
-        <v>2308.758267664336</v>
+        <v>1220.801820570945</v>
       </c>
       <c r="V17" t="n">
-        <v>1977.695380320765</v>
+        <v>1220.801820570945</v>
       </c>
       <c r="W17" t="n">
-        <v>1624.926725050651</v>
+        <v>868.0331653008309</v>
       </c>
       <c r="X17" t="n">
-        <v>1251.460966789571</v>
+        <v>868.0331653008309</v>
       </c>
       <c r="Y17" t="n">
-        <v>1251.460966789571</v>
+        <v>868.0331653008309</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966385</v>
+        <v>46.35799529630503</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155116</v>
+        <v>46.35799529630503</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542603</v>
+        <v>46.35799529630503</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6792471488048</v>
+        <v>46.35799529630503</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1446891756898</v>
+        <v>46.35799529630503</v>
       </c>
       <c r="G18" t="n">
-        <v>165.443278618252</v>
+        <v>46.35799529630503</v>
       </c>
       <c r="H18" t="n">
-        <v>71.67401812057898</v>
+        <v>46.35799529630503</v>
       </c>
       <c r="I18" t="n">
-        <v>51.24678656800312</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J18" t="n">
-        <v>238.4273302370162</v>
+        <v>183.8748628766941</v>
       </c>
       <c r="K18" t="n">
-        <v>423.1489515180663</v>
+        <v>305.2979551469729</v>
       </c>
       <c r="L18" t="n">
-        <v>717.8525085495381</v>
+        <v>514.8888283998035</v>
       </c>
       <c r="M18" t="n">
-        <v>1081.114527508758</v>
+        <v>778.8283598952908</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.399656105704</v>
+        <v>1064.162230328624</v>
       </c>
       <c r="O18" t="n">
-        <v>1800.470091281866</v>
+        <v>1302.967182080082</v>
       </c>
       <c r="P18" t="n">
-        <v>2214.708848710446</v>
+        <v>1475.296143033791</v>
       </c>
       <c r="Q18" t="n">
-        <v>2538.001278676483</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R18" t="n">
-        <v>2562.339328400156</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S18" t="n">
-        <v>2426.617474780096</v>
+        <v>1543.309735648993</v>
       </c>
       <c r="T18" t="n">
-        <v>2232.610846175226</v>
+        <v>1347.691013115833</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.520742047138</v>
+        <v>1119.574596246804</v>
       </c>
       <c r="V18" t="n">
-        <v>1769.368633815396</v>
+        <v>884.4224880150614</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.131277087193</v>
+        <v>630.1851312868598</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.27977688166</v>
+        <v>422.333631081327</v>
       </c>
       <c r="Y18" t="n">
-        <v>1099.519478116707</v>
+        <v>214.5733323163731</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>420.8826835256366</v>
+        <v>478.6488915551978</v>
       </c>
       <c r="C19" t="n">
-        <v>420.8826835256366</v>
+        <v>478.6488915551978</v>
       </c>
       <c r="D19" t="n">
-        <v>346.0498276483066</v>
+        <v>328.532252142862</v>
       </c>
       <c r="E19" t="n">
-        <v>198.1367340659135</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="F19" t="n">
-        <v>51.24678656800312</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="G19" t="n">
-        <v>51.24678656800312</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="H19" t="n">
-        <v>51.24678656800312</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="I19" t="n">
-        <v>51.24678656800312</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J19" t="n">
-        <v>76.71595955312203</v>
+        <v>35.96388306992289</v>
       </c>
       <c r="K19" t="n">
-        <v>248.4064713020477</v>
+        <v>169.472972355726</v>
       </c>
       <c r="L19" t="n">
-        <v>523.6376499693235</v>
+        <v>395.84507567387</v>
       </c>
       <c r="M19" t="n">
-        <v>824.219460709659</v>
+        <v>644.9118420064103</v>
       </c>
       <c r="N19" t="n">
-        <v>1123.088724245823</v>
+        <v>893.4909737490111</v>
       </c>
       <c r="O19" t="n">
-        <v>1383.126566999035</v>
+        <v>1107.077740097166</v>
       </c>
       <c r="P19" t="n">
-        <v>1582.113182171024</v>
+        <v>1266.31743473321</v>
       </c>
       <c r="Q19" t="n">
-        <v>1636.446120074498</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="R19" t="n">
-        <v>1636.446120074498</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="S19" t="n">
-        <v>1636.446120074498</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T19" t="n">
-        <v>1413.467639269233</v>
+        <v>1068.720505876298</v>
       </c>
       <c r="U19" t="n">
-        <v>1124.349301773071</v>
+        <v>1068.720505876298</v>
       </c>
       <c r="V19" t="n">
-        <v>869.6648135671841</v>
+        <v>814.0360176704113</v>
       </c>
       <c r="W19" t="n">
-        <v>869.6648135671841</v>
+        <v>814.0360176704113</v>
       </c>
       <c r="X19" t="n">
-        <v>641.6752626691667</v>
+        <v>660.2973563854375</v>
       </c>
       <c r="Y19" t="n">
-        <v>420.8826835256366</v>
+        <v>660.2973563854375</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>877.9374416333219</v>
+        <v>1605.221328365286</v>
       </c>
       <c r="C20" t="n">
-        <v>877.9374416333219</v>
+        <v>1605.221328365286</v>
       </c>
       <c r="D20" t="n">
-        <v>877.9374416333219</v>
+        <v>1246.955629758536</v>
       </c>
       <c r="E20" t="n">
-        <v>877.9374416333219</v>
+        <v>861.1673771602915</v>
       </c>
       <c r="F20" t="n">
-        <v>466.9515368437143</v>
+        <v>450.1814723706839</v>
       </c>
       <c r="G20" t="n">
-        <v>51.24678656800311</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="H20" t="n">
-        <v>51.24678656800311</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="I20" t="n">
-        <v>51.24678656800311</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J20" t="n">
-        <v>187.5281822362817</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K20" t="n">
-        <v>442.5171852816081</v>
+        <v>269.6240911917568</v>
       </c>
       <c r="L20" t="n">
-        <v>795.7553530872915</v>
+        <v>507.2468724099484</v>
       </c>
       <c r="M20" t="n">
-        <v>1220.470313923562</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N20" t="n">
-        <v>1656.671415230817</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O20" t="n">
-        <v>2055.22848474084</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P20" t="n">
-        <v>2360.886721764997</v>
+        <v>1584.213091808873</v>
       </c>
       <c r="Q20" t="n">
-        <v>2542.25058172385</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R20" t="n">
-        <v>2562.339328400155</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S20" t="n">
-        <v>2448.066203146822</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T20" t="n">
-        <v>2239.320561752646</v>
+        <v>1605.221328365286</v>
       </c>
       <c r="U20" t="n">
-        <v>1985.739501016826</v>
+        <v>1605.221328365286</v>
       </c>
       <c r="V20" t="n">
-        <v>1654.676613673255</v>
+        <v>1605.221328365286</v>
       </c>
       <c r="W20" t="n">
-        <v>1654.676613673255</v>
+        <v>1605.221328365286</v>
       </c>
       <c r="X20" t="n">
-        <v>1654.676613673255</v>
+        <v>1605.221328365286</v>
       </c>
       <c r="Y20" t="n">
-        <v>1264.537281697444</v>
+        <v>1605.221328365286</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3041410966389</v>
+        <v>592.9790355139326</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8511118155119</v>
+        <v>592.9790355139326</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542606</v>
+        <v>444.0446258526813</v>
       </c>
       <c r="E21" t="n">
-        <v>448.679247148805</v>
+        <v>284.8071708472258</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756899</v>
+        <v>138.2726128741108</v>
       </c>
       <c r="G21" t="n">
-        <v>165.443278618252</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057901</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="I21" t="n">
-        <v>51.24678656800311</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J21" t="n">
-        <v>238.4273302370161</v>
+        <v>59.04473788968937</v>
       </c>
       <c r="K21" t="n">
-        <v>590.20497511435</v>
+        <v>243.2077001209177</v>
       </c>
       <c r="L21" t="n">
-        <v>884.9085321458217</v>
+        <v>452.7985733737483</v>
       </c>
       <c r="M21" t="n">
-        <v>1248.170551105042</v>
+        <v>716.7381048692356</v>
       </c>
       <c r="N21" t="n">
-        <v>1635.455679701987</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O21" t="n">
-        <v>1967.526114878149</v>
+        <v>1240.876927054027</v>
       </c>
       <c r="P21" t="n">
-        <v>2214.708848710446</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q21" t="n">
-        <v>2538.001278676482</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R21" t="n">
-        <v>2562.339328400155</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S21" t="n">
-        <v>2426.617474780096</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T21" t="n">
-        <v>2232.610846175226</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.520742047138</v>
+        <v>1458.344136258899</v>
       </c>
       <c r="V21" t="n">
-        <v>1769.368633815395</v>
+        <v>1223.192028027156</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.131277087194</v>
+        <v>968.9546712989545</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.279776881661</v>
+        <v>968.9546712989545</v>
       </c>
       <c r="Y21" t="n">
-        <v>1099.519478116707</v>
+        <v>761.1943725340006</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>538.2860735999672</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="C22" t="n">
-        <v>369.3498906720603</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="D22" t="n">
-        <v>219.2332512597245</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="E22" t="n">
-        <v>219.2332512597245</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="F22" t="n">
-        <v>219.2332512597245</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="G22" t="n">
-        <v>51.24678656800311</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="H22" t="n">
-        <v>51.24678656800311</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="I22" t="n">
-        <v>51.24678656800311</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J22" t="n">
-        <v>76.71595955312199</v>
+        <v>35.96388306992289</v>
       </c>
       <c r="K22" t="n">
-        <v>248.4064713020475</v>
+        <v>169.472972355726</v>
       </c>
       <c r="L22" t="n">
-        <v>523.6376499693234</v>
+        <v>395.84507567387</v>
       </c>
       <c r="M22" t="n">
-        <v>824.2194607096587</v>
+        <v>644.9118420064103</v>
       </c>
       <c r="N22" t="n">
-        <v>1123.088724245823</v>
+        <v>893.4909737490111</v>
       </c>
       <c r="O22" t="n">
-        <v>1383.126566999035</v>
+        <v>1107.077740097166</v>
       </c>
       <c r="P22" t="n">
-        <v>1582.113182171024</v>
+        <v>1266.31743473321</v>
       </c>
       <c r="Q22" t="n">
-        <v>1636.446120074497</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="R22" t="n">
-        <v>1636.446120074497</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="S22" t="n">
-        <v>1636.446120074497</v>
+        <v>1090.659418261162</v>
       </c>
       <c r="T22" t="n">
-        <v>1413.467639269233</v>
+        <v>866.2482590365996</v>
       </c>
       <c r="U22" t="n">
-        <v>1124.349301773071</v>
+        <v>866.2482590365996</v>
       </c>
       <c r="V22" t="n">
-        <v>869.6648135671838</v>
+        <v>611.5637708307128</v>
       </c>
       <c r="W22" t="n">
-        <v>869.6648135671838</v>
+        <v>322.1466007937522</v>
       </c>
       <c r="X22" t="n">
-        <v>869.6648135671838</v>
+        <v>94.15704989573481</v>
       </c>
       <c r="Y22" t="n">
-        <v>719.9345384302069</v>
+        <v>94.15704989573481</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1380.342820051861</v>
+        <v>1254.111199477248</v>
       </c>
       <c r="C23" t="n">
-        <v>1380.342820051861</v>
+        <v>1254.111199477248</v>
       </c>
       <c r="D23" t="n">
-        <v>1022.077121445111</v>
+        <v>895.8455008704973</v>
       </c>
       <c r="E23" t="n">
-        <v>1022.077121445111</v>
+        <v>510.057248272253</v>
       </c>
       <c r="F23" t="n">
-        <v>611.0912166555033</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G23" t="n">
-        <v>195.3864663797922</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H23" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I23" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J23" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L23" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M23" t="n">
         <v>1220.470313923562</v>
@@ -6010,31 +6010,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q23" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R23" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S23" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T23" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U23" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V23" t="n">
-        <v>2106.577233583055</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W23" t="n">
-        <v>1753.808578312941</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X23" t="n">
-        <v>1380.342820051861</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y23" t="n">
-        <v>1380.342820051861</v>
+        <v>1254.111199477248</v>
       </c>
     </row>
     <row r="24">
@@ -6044,55 +6044,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D24" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542611</v>
       </c>
       <c r="E24" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488056</v>
       </c>
       <c r="F24" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756906</v>
       </c>
       <c r="G24" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182527</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I24" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J24" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K24" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380236</v>
       </c>
       <c r="L24" t="n">
-        <v>979.6730931919906</v>
+        <v>909.2465818694952</v>
       </c>
       <c r="M24" t="n">
-        <v>1342.935112151211</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N24" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O24" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P24" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q24" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R24" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S24" t="n">
         <v>2426.617474780096</v>
@@ -6104,7 +6104,7 @@
         <v>2004.520742047138</v>
       </c>
       <c r="V24" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W24" t="n">
         <v>1515.131277087194</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>538.2860735999672</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="C25" t="n">
-        <v>369.3498906720603</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="D25" t="n">
-        <v>219.2332512597245</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="E25" t="n">
-        <v>219.2332512597245</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="F25" t="n">
-        <v>219.2332512597245</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="G25" t="n">
-        <v>51.24678656800311</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="H25" t="n">
-        <v>51.24678656800311</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="I25" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J25" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K25" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L25" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M25" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N25" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O25" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P25" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q25" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R25" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S25" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T25" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U25" t="n">
-        <v>1216.838891429094</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V25" t="n">
-        <v>1216.838891429094</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W25" t="n">
-        <v>1168.716668471754</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X25" t="n">
-        <v>940.727117573737</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="Y25" t="n">
-        <v>719.9345384302069</v>
+        <v>53.04593830764878</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1709.873294294348</v>
+        <v>1449.50507480484</v>
       </c>
       <c r="C26" t="n">
-        <v>1340.910777353936</v>
+        <v>1449.50507480484</v>
       </c>
       <c r="D26" t="n">
-        <v>1223.1725826085</v>
+        <v>1091.23937619809</v>
       </c>
       <c r="E26" t="n">
-        <v>837.3843300102556</v>
+        <v>705.4511235998452</v>
       </c>
       <c r="F26" t="n">
-        <v>837.3843300102556</v>
+        <v>294.4652188102377</v>
       </c>
       <c r="G26" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H26" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I26" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J26" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M26" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N26" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O26" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P26" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q26" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T26" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U26" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V26" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W26" t="n">
-        <v>2100.01262627016</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X26" t="n">
-        <v>2100.01262627016</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="Y26" t="n">
-        <v>1709.873294294348</v>
+        <v>1836.104914868962</v>
       </c>
     </row>
     <row r="27">
@@ -6281,55 +6281,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E27" t="n">
-        <v>448.6792471488051</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G27" t="n">
-        <v>165.4432786182523</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I27" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J27" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K27" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L27" t="n">
-        <v>593.0223835625329</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M27" t="n">
-        <v>1178.376567084329</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N27" t="n">
-        <v>1565.661695681274</v>
+        <v>1468.399656105704</v>
       </c>
       <c r="O27" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P27" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q27" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R27" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S27" t="n">
         <v>2426.617474780096</v>
@@ -6338,16 +6338,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U27" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V27" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y27" t="n">
         <v>1099.519478116707</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>833.0891146802707</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C28" t="n">
-        <v>664.1529317523638</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D28" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E28" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F28" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J28" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K28" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L28" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M28" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N28" t="n">
         <v>1123.088724245823</v>
@@ -6405,31 +6405,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q28" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R28" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S28" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T28" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U28" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V28" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.643294372449</v>
       </c>
       <c r="W28" t="n">
-        <v>1347.028950037537</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="X28" t="n">
-        <v>1235.53015865404</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="Y28" t="n">
-        <v>1014.73757951051</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1302.576789404184</v>
+        <v>1255.834556068884</v>
       </c>
       <c r="C29" t="n">
-        <v>1302.576789404184</v>
+        <v>886.8720391284728</v>
       </c>
       <c r="D29" t="n">
-        <v>944.3110907974335</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="E29" t="n">
-        <v>944.3110907974335</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F29" t="n">
-        <v>533.3251860078259</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G29" t="n">
         <v>117.6204357321147</v>
@@ -6463,25 +6463,25 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M29" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N29" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O29" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P29" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q29" t="n">
         <v>2542.250581723851</v>
@@ -6490,25 +6490,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S29" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T29" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U29" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V29" t="n">
-        <v>2418.95053491119</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W29" t="n">
-        <v>2066.181879641076</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X29" t="n">
-        <v>1692.716121379996</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="Y29" t="n">
-        <v>1302.576789404184</v>
+        <v>1321.26637541962</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966393</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155124</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542611</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E30" t="n">
-        <v>448.6792471488056</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F30" t="n">
-        <v>302.1446891756906</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G30" t="n">
-        <v>165.4432786182527</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H30" t="n">
         <v>71.67401812057901</v>
@@ -6542,25 +6542,25 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J30" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K30" t="n">
-        <v>684.9695361605188</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L30" t="n">
-        <v>979.6730931919906</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M30" t="n">
-        <v>1342.935112151211</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N30" t="n">
-        <v>1730.220240748156</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O30" t="n">
-        <v>2062.290675924318</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P30" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q30" t="n">
         <v>2562.339328400156</v>
@@ -6578,13 +6578,13 @@
         <v>2004.520742047138</v>
       </c>
       <c r="V30" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W30" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y30" t="n">
         <v>1099.519478116707</v>
@@ -6651,22 +6651,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T31" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U31" t="n">
-        <v>1347.327782578335</v>
+        <v>1308.566182029688</v>
       </c>
       <c r="V31" t="n">
-        <v>1347.327782578335</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="W31" t="n">
-        <v>1057.910612541375</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="X31" t="n">
-        <v>1057.910612541375</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y31" t="n">
-        <v>837.1180333978444</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1291.481876182945</v>
+        <v>1110.088185601308</v>
       </c>
       <c r="C32" t="n">
-        <v>1236.203140240072</v>
+        <v>741.1256686608965</v>
       </c>
       <c r="D32" t="n">
-        <v>877.9374416333219</v>
+        <v>741.1256686608965</v>
       </c>
       <c r="E32" t="n">
-        <v>877.9374416333219</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="F32" t="n">
-        <v>466.9515368437143</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G32" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H32" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I32" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J32" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L32" t="n">
         <v>795.7553530872915</v>
@@ -6727,25 +6727,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S32" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T32" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U32" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V32" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W32" t="n">
-        <v>1291.481876182945</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X32" t="n">
-        <v>1291.481876182945</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y32" t="n">
-        <v>1291.481876182945</v>
+        <v>1110.088185601308</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E33" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G33" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I33" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J33" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K33" t="n">
-        <v>423.148951518066</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L33" t="n">
-        <v>909.2465818694943</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M33" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N33" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O33" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P33" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q33" t="n">
         <v>2562.339328400155</v>
@@ -6812,7 +6812,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U33" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V33" t="n">
         <v>1769.368633815395</v>
@@ -6821,7 +6821,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X33" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y33" t="n">
         <v>1099.519478116707</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>833.0891146802707</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C34" t="n">
-        <v>664.1529317523638</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D34" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E34" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F34" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G34" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H34" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I34" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J34" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K34" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L34" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M34" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N34" t="n">
         <v>1123.088724245823</v>
@@ -6885,25 +6885,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T34" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U34" t="n">
-        <v>1216.838891429094</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V34" t="n">
-        <v>1216.838891429094</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="W34" t="n">
-        <v>1216.838891429094</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="X34" t="n">
-        <v>1014.73757951051</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y34" t="n">
-        <v>1014.73757951051</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1588.713578732508</v>
+        <v>1272.660291726717</v>
       </c>
       <c r="C35" t="n">
-        <v>1219.751061792097</v>
+        <v>1272.660291726717</v>
       </c>
       <c r="D35" t="n">
-        <v>1219.751061792097</v>
+        <v>914.3945931199664</v>
       </c>
       <c r="E35" t="n">
-        <v>833.9628091938525</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F35" t="n">
-        <v>466.9515368437143</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G35" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H35" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I35" t="n">
         <v>51.24678656800311</v>
@@ -6964,25 +6964,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S35" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T35" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U35" t="n">
-        <v>1975.31341879663</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V35" t="n">
-        <v>1975.31341879663</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W35" t="n">
-        <v>1975.31341879663</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X35" t="n">
-        <v>1975.31341879663</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="Y35" t="n">
-        <v>1975.31341879663</v>
+        <v>1416.181083656475</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E36" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G36" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H36" t="n">
         <v>71.67401812057901</v>
@@ -7019,25 +7019,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K36" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L36" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M36" t="n">
-        <v>1165.206974733667</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.492103330613</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O36" t="n">
-        <v>1884.562538506774</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P36" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q36" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R36" t="n">
         <v>2562.339328400155</v>
@@ -7055,7 +7055,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X36" t="n">
         <v>1307.279776881661</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>833.0891146802707</v>
+        <v>714.3660817020698</v>
       </c>
       <c r="C37" t="n">
         <v>664.1529317523638</v>
@@ -7122,25 +7122,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T37" t="n">
-        <v>1463.519709552058</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U37" t="n">
-        <v>1463.519709552058</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V37" t="n">
-        <v>1463.519709552058</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W37" t="n">
-        <v>1463.519709552058</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="X37" t="n">
-        <v>1235.53015865404</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="Y37" t="n">
-        <v>1014.73757951051</v>
+        <v>896.0145465323095</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1158.463096854643</v>
+        <v>1454.537269016651</v>
       </c>
       <c r="C38" t="n">
-        <v>1158.463096854643</v>
+        <v>1085.574752076239</v>
       </c>
       <c r="D38" t="n">
-        <v>800.1973982478926</v>
+        <v>766.2918353600403</v>
       </c>
       <c r="E38" t="n">
-        <v>462.2326913576106</v>
+        <v>766.2918353600403</v>
       </c>
       <c r="F38" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G38" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H38" t="n">
         <v>51.2467865680031</v>
@@ -7177,10 +7177,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L38" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M38" t="n">
         <v>1220.470313923562</v>
@@ -7201,25 +7201,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T38" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U38" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V38" t="n">
-        <v>1897.831592188879</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W38" t="n">
-        <v>1545.062936918765</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X38" t="n">
-        <v>1545.062936918765</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="Y38" t="n">
-        <v>1545.062936918765</v>
+        <v>1841.137109080772</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G39" t="n">
         <v>165.443278618252</v>
@@ -7253,25 +7253,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J39" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K39" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L39" t="n">
-        <v>1057.327935297104</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M39" t="n">
-        <v>1420.589954256325</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N39" t="n">
-        <v>1807.87508285327</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.945518029432</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P39" t="n">
-        <v>2387.128251861729</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q39" t="n">
         <v>2562.339328400155</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>833.0891146802707</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="C40" t="n">
-        <v>664.1529317523638</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="D40" t="n">
-        <v>514.036292340028</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E40" t="n">
-        <v>366.1231987576349</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F40" t="n">
         <v>219.2332512597245</v>
@@ -7365,19 +7365,19 @@
         <v>1413.467639269233</v>
       </c>
       <c r="U40" t="n">
-        <v>1413.467639269233</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V40" t="n">
-        <v>1235.53015865404</v>
+        <v>869.6648135671836</v>
       </c>
       <c r="W40" t="n">
-        <v>1235.53015865404</v>
+        <v>580.2476435302231</v>
       </c>
       <c r="X40" t="n">
-        <v>1235.53015865404</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="Y40" t="n">
-        <v>1014.73757951051</v>
+        <v>369.3498906720603</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1287.435190625612</v>
+        <v>702.7912425462207</v>
       </c>
       <c r="C41" t="n">
-        <v>918.4726736852001</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="D41" t="n">
-        <v>560.2069750784497</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="E41" t="n">
-        <v>560.2069750784497</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F41" t="n">
-        <v>149.2210702888421</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G41" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H41" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I41" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J41" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L41" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M41" t="n">
         <v>1220.470313923562</v>
@@ -7444,19 +7444,19 @@
         <v>2437.640120926625</v>
       </c>
       <c r="U41" t="n">
-        <v>2437.640120926625</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V41" t="n">
-        <v>2437.640120926625</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W41" t="n">
-        <v>2437.640120926625</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="X41" t="n">
-        <v>2064.174362665545</v>
+        <v>1479.530414586154</v>
       </c>
       <c r="Y41" t="n">
-        <v>1674.035030689734</v>
+        <v>1089.391082610342</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K42" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L42" t="n">
-        <v>1057.327935297104</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M42" t="n">
-        <v>1420.589954256325</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N42" t="n">
-        <v>1807.87508285327</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.945518029432</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P42" t="n">
-        <v>2387.128251861729</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q42" t="n">
         <v>2562.339328400155</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>665.1026499885492</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C43" t="n">
-        <v>496.1664670606423</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D43" t="n">
-        <v>346.0498276483066</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E43" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F43" t="n">
         <v>51.2467865680031</v>
@@ -7602,19 +7602,19 @@
         <v>1413.467639269233</v>
       </c>
       <c r="U43" t="n">
-        <v>1413.467639269233</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V43" t="n">
-        <v>1413.467639269233</v>
+        <v>869.6648135671836</v>
       </c>
       <c r="W43" t="n">
-        <v>1295.533244860336</v>
+        <v>580.2476435302231</v>
       </c>
       <c r="X43" t="n">
-        <v>1067.543693962319</v>
+        <v>352.2580926322057</v>
       </c>
       <c r="Y43" t="n">
-        <v>846.7511148187889</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>918.0161179218655</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="C44" t="n">
-        <v>549.0536009814539</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="D44" t="n">
-        <v>190.7879023747034</v>
+        <v>1141.961818970369</v>
       </c>
       <c r="E44" t="n">
-        <v>51.24678656800312</v>
+        <v>766.2918353600403</v>
       </c>
       <c r="F44" t="n">
-        <v>51.24678656800312</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G44" t="n">
-        <v>51.24678656800312</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H44" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I44" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M44" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N44" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O44" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P44" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R44" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S44" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T44" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U44" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V44" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W44" t="n">
-        <v>1291.481876182945</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X44" t="n">
-        <v>918.0161179218655</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y44" t="n">
-        <v>918.0161179218655</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E45" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G45" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I45" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J45" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K45" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L45" t="n">
-        <v>909.2465818694943</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M45" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N45" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O45" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P45" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q45" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R45" t="n">
         <v>2562.339328400155</v>
@@ -7760,7 +7760,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V45" t="n">
         <v>1769.368633815395</v>
@@ -7769,7 +7769,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y45" t="n">
         <v>1099.519478116707</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.24678656800312</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C46" t="n">
-        <v>51.24678656800312</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D46" t="n">
-        <v>51.24678656800312</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E46" t="n">
-        <v>51.24678656800312</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F46" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G46" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H46" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I46" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J46" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K46" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L46" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M46" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N46" t="n">
         <v>1123.088724245823</v>
@@ -7833,25 +7833,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T46" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U46" t="n">
-        <v>927.7205539329318</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V46" t="n">
-        <v>673.036065727045</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W46" t="n">
-        <v>383.6188956900843</v>
+        <v>1057.910612541374</v>
       </c>
       <c r="X46" t="n">
-        <v>155.629344792067</v>
+        <v>829.921061643357</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.24678656800312</v>
+        <v>609.1284824998269</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>100.9387195582597</v>
+        <v>144.7782400090186</v>
       </c>
       <c r="K2" t="n">
-        <v>100.0299464227919</v>
+        <v>165.7340233551557</v>
       </c>
       <c r="L2" t="n">
-        <v>86.82148686318186</v>
+        <v>168.3332042496898</v>
       </c>
       <c r="M2" t="n">
-        <v>64.61630209323863</v>
+        <v>155.313793312247</v>
       </c>
       <c r="N2" t="n">
-        <v>61.00144891149961</v>
+        <v>153.1665203597392</v>
       </c>
       <c r="O2" t="n">
-        <v>71.0718992657024</v>
+        <v>158.1007627405435</v>
       </c>
       <c r="P2" t="n">
-        <v>95.50771753390021</v>
+        <v>169.7848390257594</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.3816583481039</v>
+        <v>176.1606832418653</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>79.12633608862856</v>
+        <v>105.2368541383191</v>
       </c>
       <c r="K3" t="n">
-        <v>56.29524403393702</v>
+        <v>100.9222782029847</v>
       </c>
       <c r="L3" t="n">
-        <v>28.90545725697471</v>
+        <v>88.91201201533924</v>
       </c>
       <c r="M3" t="n">
-        <v>14.17891314335149</v>
+        <v>84.20373222002493</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>71.87816767228074</v>
       </c>
       <c r="O3" t="n">
-        <v>22.44423757443683</v>
+        <v>88.19871845469135</v>
       </c>
       <c r="P3" t="n">
-        <v>37.54182911310821</v>
+        <v>90.31559703694771</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.51914927829571</v>
+        <v>110.7970155481158</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>79.82491575659759</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>71.94053294496764</v>
+        <v>106.3873938617947</v>
       </c>
       <c r="M4" t="n">
-        <v>72.56001021962938</v>
+        <v>108.8793952501326</v>
       </c>
       <c r="N4" t="n">
-        <v>62.89780050171086</v>
+        <v>98.35359173400578</v>
       </c>
       <c r="O4" t="n">
-        <v>78.61457070130248</v>
+        <v>111.3637325904322</v>
       </c>
       <c r="P4" t="n">
-        <v>86.52286261917671</v>
+        <v>114.5454282078686</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8221,16 +8221,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -8315,7 +8315,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8382,7 +8382,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280013</v>
+        <v>92.06191329280011</v>
       </c>
       <c r="K8" t="n">
         <v>86.72591490550931</v>
@@ -8461,7 +8461,7 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729366</v>
+        <v>46.25150133729363</v>
       </c>
       <c r="N8" t="n">
         <v>42.33948647951536</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913169</v>
+        <v>73.83937108913167</v>
       </c>
       <c r="K9" t="n">
         <v>47.25897875440141</v>
@@ -8625,10 +8625,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O10" t="n">
-        <v>71.9833858147683</v>
+        <v>71.98338581476828</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615827</v>
+        <v>80.84873837615825</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>265.0304328515152</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.93778120154984</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775127</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K15" t="n">
-        <v>193.3273467878361</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R15" t="n">
-        <v>20.93778120154984</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>168.7434581780639</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>147.3598584166012</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>168.7434581780645</v>
+        <v>63.37360602116109</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878359</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>138.939397511106</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>224.3355197601779</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>305.1601501039158</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q30" t="n">
-        <v>138.9393975111062</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>20.9377812015499</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="L33" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>20.9377812015499</v>
@@ -10667,13 +10667,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>30.36925650589512</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>342.9044714621886</v>
+        <v>54.95314511566522</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.5001630614953</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>20.9377812015499</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L42" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>60.5001630614953</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>20.9377812015499</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>193.3273467878349</v>
+        <v>30.36925650589444</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.3588981658848</v>
+        <v>414.8754244234233</v>
       </c>
       <c r="H2" t="n">
-        <v>329.8087073802583</v>
+        <v>335.0985819152745</v>
       </c>
       <c r="I2" t="n">
-        <v>174.0885230584365</v>
+        <v>194.0019016021898</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>90.58066941881005</v>
+        <v>123.0269119439133</v>
       </c>
       <c r="S2" t="n">
-        <v>187.5123304152058</v>
+        <v>199.2826725088645</v>
       </c>
       <c r="T2" t="n">
-        <v>218.9641928127885</v>
+        <v>221.2252865051633</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2701457598965</v>
+        <v>251.3114678604996</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.8385185906377</v>
+        <v>137.1148845028669</v>
       </c>
       <c r="H3" t="n">
-        <v>107.3582211803319</v>
+        <v>110.027334069493</v>
       </c>
       <c r="I3" t="n">
-        <v>72.00962059397116</v>
+        <v>81.52485046677515</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>68.80362453272261</v>
+        <v>85.96255371481348</v>
       </c>
       <c r="S3" t="n">
-        <v>162.3030441088983</v>
+        <v>167.4364197154366</v>
       </c>
       <c r="T3" t="n">
-        <v>198.1292300623896</v>
+        <v>199.2431786296644</v>
       </c>
       <c r="U3" t="n">
-        <v>225.908158490674</v>
+        <v>225.9263404585838</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.5676055192152</v>
+        <v>167.7993014162954</v>
       </c>
       <c r="H4" t="n">
-        <v>158.4629941912556</v>
+        <v>160.5229813489331</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7184689252781</v>
+        <v>149.6861964483834</v>
       </c>
       <c r="J4" t="n">
-        <v>63.42664968215054</v>
+        <v>79.80754960572669</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>50.71025749466926</v>
+        <v>70.1116293856375</v>
       </c>
       <c r="R4" t="n">
-        <v>158.2569640235438</v>
+        <v>168.6748540868082</v>
       </c>
       <c r="S4" t="n">
-        <v>216.6383466748816</v>
+        <v>220.6761742630898</v>
       </c>
       <c r="T4" t="n">
-        <v>226.1366284787861</v>
+        <v>227.1266018572201</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2959362379867</v>
+        <v>286.3085741960093</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.0108208899931</v>
+        <v>84.01082088999308</v>
       </c>
       <c r="S8" t="n">
         <v>185.1290231762283</v>
@@ -23202,7 +23202,7 @@
         <v>141.3076148215571</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604452</v>
+        <v>60.10977774604451</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.7817879815572</v>
+        <v>46.78178798155719</v>
       </c>
       <c r="R10" t="n">
         <v>156.1475068297698</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>183.2579759248809</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247044</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>152.1011335439533</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>133.8152831518184</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,16 +23387,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23418,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>124.7799717194924</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551288</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I13" t="n">
-        <v>104.7965952039006</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.5575724195736</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S13" t="n">
-        <v>194.6624603617375</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V13" t="n">
-        <v>29.5643604413348</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>32.94503596474829</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H14" t="n">
-        <v>301.0185525624054</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>321.0462194366993</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>77.29763668650395</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I16" t="n">
-        <v>104.7965952039006</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>106.8635265802251</v>
       </c>
       <c r="S16" t="n">
-        <v>194.6624603617375</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>265.4708342183795</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>63.30081322148681</v>
       </c>
       <c r="H17" t="n">
-        <v>301.0185525624054</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I17" t="n">
-        <v>36.24883886934174</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>123.4522153987943</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T17" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,25 +23813,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>21.35309392692833</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>74.53094569965565</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3066000448042</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H19" t="n">
-        <v>147.2515091551288</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I19" t="n">
-        <v>104.7965952039006</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>101.5575724195736</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S19" t="n">
-        <v>194.6624603617375</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>73.50838071691314</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>301.0185525624054</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I20" t="n">
-        <v>65.70991267247049</v>
+        <v>94.24014755885167</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>10.32182139799416</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>129.4708597141686</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>32.23238278409985</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>33.85559031833735</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>120.0084197370928</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H22" t="n">
-        <v>147.2515091551288</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I22" t="n">
-        <v>104.7965952039006</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>101.5575724195736</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S22" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.35168096648761</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>364.2013914274581</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>158.3202695487342</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
         <v>65.70991267247049</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I25" t="n">
-        <v>104.7965952039006</v>
+        <v>103.0154349816514</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>238.8819976088249</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>238.1222288227009</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>170.7614548531418</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
         <v>147.2515091551288</v>
@@ -24657,19 +24657,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>43.089740578468</v>
       </c>
       <c r="X28" t="n">
-        <v>115.3258519193757</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>317.9563405062523</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
         <v>301.0185525624054</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>206.6581849802338</v>
@@ -24739,7 +24739,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
-        <v>185.7973529160588</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>175.8433506515393</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>182.3747114540509</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,19 +24919,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>310.5469431875633</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>105.8263225420088</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
         <v>301.0185525624054</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
         <v>147.2515091551288</v>
@@ -25125,13 +25125,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>25.62935658963937</v>
+        <v>169.4721036563931</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>240.6482576530202</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>43.53488611507458</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>117.5358026484189</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>49.55154957999665</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>38.5929540716462</v>
       </c>
       <c r="E38" t="n">
-        <v>47.34531025088268</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>65.70991267247049</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
         <v>251.045250128462</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>75.97953751478767</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>16.92088005945601</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>192.8298387667541</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>314.5531618893234</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.3066000448042</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>169.7679478717835</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>100.4154405304715</v>
       </c>
     </row>
     <row r="44">
@@ -25867,22 +25867,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>243.7846654236286</v>
+        <v>10.01708629803596</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>65.70991267247049</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>67.99958489714456</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.3066000448042</v>
@@ -26073,16 +26073,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>115.2459207102715</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>337471.6187566424</v>
+        <v>343139.410635718</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838164.7694858275</v>
+        <v>559656.7656737803</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838164.7694858274</v>
+        <v>559656.7656737805</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838164.7694858275</v>
+        <v>677014.3669111907</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838164.7694858274</v>
+        <v>677014.3669111907</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838164.7694858274</v>
+        <v>838164.7694858273</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838164.7694858274</v>
+        <v>838164.7694858273</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838164.7694858274</v>
+        <v>838164.7694858273</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93333.36148145696</v>
+        <v>89843.86658282168</v>
       </c>
       <c r="C2" t="n">
-        <v>93333.36148145696</v>
+        <v>93333.36148145693</v>
       </c>
       <c r="D2" t="n">
-        <v>94039.92874909588</v>
+        <v>94039.92874909593</v>
       </c>
       <c r="E2" t="n">
+        <v>163173.2649576899</v>
+      </c>
+      <c r="F2" t="n">
+        <v>163173.26495769</v>
+      </c>
+      <c r="G2" t="n">
+        <v>197601.5443750087</v>
+      </c>
+      <c r="H2" t="n">
+        <v>197601.5443750086</v>
+      </c>
+      <c r="I2" t="n">
         <v>244777.3043954469</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>244777.304395447</v>
       </c>
-      <c r="G2" t="n">
-        <v>244777.304395447</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>244777.3043954468</v>
       </c>
-      <c r="I2" t="n">
-        <v>244777.3043954468</v>
-      </c>
-      <c r="J2" t="n">
-        <v>244777.3043954468</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>244777.3043954469</v>
-      </c>
-      <c r="L2" t="n">
-        <v>244777.3043954468</v>
       </c>
       <c r="M2" t="n">
         <v>244777.3043954469</v>
       </c>
       <c r="N2" t="n">
-        <v>244777.3043954468</v>
+        <v>244777.3043954469</v>
       </c>
       <c r="O2" t="n">
         <v>244777.3043954468</v>
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>226237.0968787037</v>
+        <v>102426.4069980972</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>116999.523487811</v>
       </c>
       <c r="D3" t="n">
         <v>22280.77012981693</v>
       </c>
       <c r="E3" t="n">
-        <v>732170.4703829645</v>
+        <v>362548.1989528211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>148959.0198096712</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>196797.6384037576</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.523134980947361e-10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>159636.3024986582</v>
+        <v>65718.55375189536</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>37999.09570645476</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22471.52375672497</v>
+        <v>39916.36091869475</v>
       </c>
       <c r="C4" t="n">
         <v>22471.52375672497</v>
       </c>
       <c r="D4" t="n">
-        <v>19093.49581609735</v>
+        <v>19093.49581609734</v>
       </c>
       <c r="E4" t="n">
-        <v>12563.18241499341</v>
+        <v>9175.676332186657</v>
       </c>
       <c r="F4" t="n">
-        <v>12563.18241499342</v>
+        <v>9175.676332186658</v>
       </c>
       <c r="G4" t="n">
-        <v>12563.1824149934</v>
+        <v>10460.45598285268</v>
       </c>
       <c r="H4" t="n">
-        <v>12563.18241499341</v>
+        <v>10460.45598285268</v>
       </c>
       <c r="I4" t="n">
         <v>12563.18241499341</v>
       </c>
       <c r="J4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="K4" t="n">
         <v>12563.18241499341</v>
       </c>
       <c r="L4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="M4" t="n">
         <v>12563.18241499341</v>
@@ -26459,7 +26459,7 @@
         <v>12563.1824149934</v>
       </c>
       <c r="P4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499341</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38745.80483114667</v>
+        <v>35944.81206807974</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26478,22 +26478,22 @@
         <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984474</v>
+        <v>29420.2032042662</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984475</v>
+        <v>29420.2032042662</v>
       </c>
       <c r="G5" t="n">
+        <v>41983.78525919239</v>
+      </c>
+      <c r="H5" t="n">
+        <v>41983.78525919239</v>
+      </c>
+      <c r="I5" t="n">
         <v>59310.17243984473</v>
       </c>
-      <c r="H5" t="n">
-        <v>59310.17243984471</v>
-      </c>
-      <c r="I5" t="n">
-        <v>59310.17243984471</v>
-      </c>
       <c r="J5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="K5" t="n">
         <v>59310.17243984473</v>
@@ -26511,7 +26511,7 @@
         <v>59310.17243984471</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208813.7731391344</v>
+        <v>-89934.79366056809</v>
       </c>
       <c r="C6" t="n">
-        <v>17423.3237395693</v>
+        <v>-86352.76150962729</v>
       </c>
       <c r="D6" t="n">
-        <v>-1295.847253487715</v>
+        <v>11887.84657632207</v>
       </c>
       <c r="E6" t="n">
-        <v>-564493.9835642474</v>
+        <v>-239003.5850502592</v>
       </c>
       <c r="F6" t="n">
-        <v>167676.4868187172</v>
+        <v>123544.613902562</v>
       </c>
       <c r="G6" t="n">
-        <v>167676.4868187172</v>
+        <v>-4619.311449024495</v>
       </c>
       <c r="H6" t="n">
-        <v>167676.4868187173</v>
+        <v>144339.7083606466</v>
       </c>
       <c r="I6" t="n">
-        <v>167676.4868187171</v>
+        <v>-24416.43513533802</v>
       </c>
       <c r="J6" t="n">
-        <v>167676.486818717</v>
+        <v>172381.2032684194</v>
       </c>
       <c r="K6" t="n">
-        <v>167676.4868187171</v>
+        <v>172381.2032684197</v>
       </c>
       <c r="L6" t="n">
-        <v>167676.486818717</v>
+        <v>172381.2032684196</v>
       </c>
       <c r="M6" t="n">
-        <v>8040.184320058938</v>
+        <v>106662.6495165243</v>
       </c>
       <c r="N6" t="n">
-        <v>167676.486818717</v>
+        <v>172381.2032684196</v>
       </c>
       <c r="O6" t="n">
-        <v>167676.486818717</v>
+        <v>134382.1075619647</v>
       </c>
       <c r="P6" t="n">
-        <v>167676.4868187171</v>
+        <v>172381.2032684196</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>234.7800381259942</v>
+        <v>106.2941315632906</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26746,22 +26746,22 @@
         <v>260.7963925174648</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175396</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175396</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="G3" t="n">
-        <v>934.0648921175396</v>
+        <v>749.98095649761</v>
       </c>
       <c r="H3" t="n">
-        <v>934.0648921175392</v>
+        <v>749.98095649761</v>
       </c>
       <c r="I3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="J3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="K3" t="n">
         <v>934.0648921175392</v>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000392</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F4" t="n">
-        <v>640.5848321000393</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G4" t="n">
+        <v>421.6151382819818</v>
+      </c>
+      <c r="H4" t="n">
+        <v>421.6151382819818</v>
+      </c>
+      <c r="I4" t="n">
         <v>640.584832100039</v>
       </c>
-      <c r="H4" t="n">
-        <v>640.5848321000389</v>
-      </c>
-      <c r="I4" t="n">
-        <v>640.5848321000389</v>
-      </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>640.584832100039</v>
       </c>
       <c r="L4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M4" t="n">
         <v>640.5848321000389</v>
@@ -26831,7 +26831,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="P4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
     </row>
   </sheetData>
@@ -26959,31 +26959,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>234.7800381259942</v>
+        <v>106.2941315632906</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>128.4859065627035</v>
       </c>
       <c r="D3" t="n">
         <v>26.01635439147063</v>
       </c>
       <c r="E3" t="n">
-        <v>673.2684996000747</v>
+        <v>353.2586212520135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>135.9259427281318</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>184.0839356199291</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000392</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>157.9012582804757</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>218.9696938180571</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000392</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>157.9012582804757</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000392</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>157.9012582804757</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9438393492502272</v>
+        <v>0.4273130917117209</v>
       </c>
       <c r="H2" t="n">
-        <v>9.666094735508892</v>
+        <v>4.376220200492662</v>
       </c>
       <c r="I2" t="n">
-        <v>36.38736651196942</v>
+        <v>16.47398796821614</v>
       </c>
       <c r="J2" t="n">
-        <v>80.10718496842655</v>
+        <v>36.2676645176677</v>
       </c>
       <c r="K2" t="n">
-        <v>120.0599046221887</v>
+        <v>54.35582768982485</v>
       </c>
       <c r="L2" t="n">
-        <v>148.9449281068054</v>
+        <v>67.43321072029745</v>
       </c>
       <c r="M2" t="n">
-        <v>165.7299311340341</v>
+        <v>75.03243991502576</v>
       </c>
       <c r="N2" t="n">
-        <v>168.4116146850913</v>
+        <v>76.24654323685169</v>
       </c>
       <c r="O2" t="n">
-        <v>159.0263121559843</v>
+        <v>71.99744868114325</v>
       </c>
       <c r="P2" t="n">
-        <v>135.7252782213693</v>
+        <v>61.44815672951015</v>
       </c>
       <c r="Q2" t="n">
-        <v>101.9240315263455</v>
+        <v>46.14500663258413</v>
       </c>
       <c r="R2" t="n">
-        <v>59.28844852233964</v>
+        <v>26.84220599723641</v>
       </c>
       <c r="S2" t="n">
-        <v>21.50773917103957</v>
+        <v>9.73739707738085</v>
       </c>
       <c r="T2" t="n">
-        <v>4.131656751342871</v>
+        <v>1.870563058968059</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.03418504733693766</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.2286326603436818</v>
       </c>
       <c r="H3" t="n">
-        <v>4.877223056164522</v>
+        <v>2.208110167003453</v>
       </c>
       <c r="I3" t="n">
-        <v>17.38701225744391</v>
+        <v>7.871782384639921</v>
       </c>
       <c r="J3" t="n">
-        <v>47.71129057803813</v>
+        <v>21.60077252834759</v>
       </c>
       <c r="K3" t="n">
-        <v>81.54619494042197</v>
+        <v>36.91916077137427</v>
       </c>
       <c r="L3" t="n">
-        <v>109.6489225228995</v>
+        <v>49.64236776453494</v>
       </c>
       <c r="M3" t="n">
-        <v>127.9551207786668</v>
+        <v>57.93030170199339</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>59.46354441105257</v>
       </c>
       <c r="O3" t="n">
-        <v>120.1520068700076</v>
+        <v>54.39752598975308</v>
       </c>
       <c r="P3" t="n">
-        <v>96.43257830122204</v>
+        <v>43.65881037738254</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.4626248077258</v>
+        <v>29.18475853790576</v>
       </c>
       <c r="R3" t="n">
-        <v>31.35420961992052</v>
+        <v>14.19528043782965</v>
       </c>
       <c r="S3" t="n">
-        <v>9.380126994939479</v>
+        <v>4.246751388401279</v>
       </c>
       <c r="T3" t="n">
-        <v>2.035498632431968</v>
+        <v>0.9215500651572082</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0150416223910317</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.423373839243596</v>
+        <v>0.191677942163311</v>
       </c>
       <c r="H4" t="n">
-        <v>3.764178316183975</v>
+        <v>1.70419115850653</v>
       </c>
       <c r="I4" t="n">
-        <v>12.73200600198015</v>
+        <v>5.764278478874846</v>
       </c>
       <c r="J4" t="n">
-        <v>29.93253043452224</v>
+        <v>13.55163051094608</v>
       </c>
       <c r="K4" t="n">
-        <v>49.18834241393778</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
-        <v>62.94414333627064</v>
+        <v>28.49728241944353</v>
       </c>
       <c r="M4" t="n">
-        <v>66.36577372797568</v>
+        <v>30.04638869747246</v>
       </c>
       <c r="N4" t="n">
-        <v>64.78774396352233</v>
+        <v>29.33195273122742</v>
       </c>
       <c r="O4" t="n">
-        <v>59.84196775054031</v>
+        <v>27.09280586141055</v>
       </c>
       <c r="P4" t="n">
-        <v>51.20514142997091</v>
+        <v>23.18257584127898</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.45178575702513</v>
+        <v>16.05041386605689</v>
       </c>
       <c r="R4" t="n">
-        <v>19.03642735362569</v>
+        <v>8.618537290361235</v>
       </c>
       <c r="S4" t="n">
-        <v>7.378251362090667</v>
+        <v>3.340423773882427</v>
       </c>
       <c r="T4" t="n">
-        <v>1.808960949495364</v>
+        <v>0.8189875710614194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.01045516048163516</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31293,7 +31293,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31302,7 +31302,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31317,7 +31317,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31387,7 +31387,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31454,7 +31454,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31466,13 +31466,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -31524,7 +31524,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388616</v>
+        <v>88.98399123388617</v>
       </c>
       <c r="K8" t="n">
         <v>133.3639361394712</v>
@@ -31548,7 +31548,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R8" t="n">
-        <v>65.85829705115658</v>
+        <v>65.8582970511566</v>
       </c>
       <c r="S8" t="n">
         <v>23.89104641001701</v>
@@ -31557,7 +31557,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.08387421668903385</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,7 +31597,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051487</v>
+        <v>5.417676003051488</v>
       </c>
       <c r="I9" t="n">
         <v>19.31369510624622</v>
@@ -31630,7 +31630,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S9" t="n">
-        <v>10.4195539840704</v>
+        <v>10.41955398407041</v>
       </c>
       <c r="T9" t="n">
         <v>2.261055516259907</v>
@@ -31682,7 +31682,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062825</v>
+        <v>33.24940237062826</v>
       </c>
       <c r="K10" t="n">
         <v>54.63898190775737</v>
@@ -31697,13 +31697,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707449</v>
+        <v>66.47315263707451</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298935</v>
+        <v>56.87926567298936</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013718</v>
+        <v>39.38025527013719</v>
       </c>
       <c r="R10" t="n">
         <v>21.14588454739968</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.755034742181061</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H11" t="n">
-        <v>38.4562495533618</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I11" t="n">
-        <v>144.7659768979355</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J11" t="n">
-        <v>318.7038799491901</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857145</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767382</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730006</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342227</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166597</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190646</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147053</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235313</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S11" t="n">
-        <v>85.567854187451</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T11" t="n">
-        <v>16.4376645838976</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.009120711347161</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H12" t="n">
-        <v>19.40387634380021</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436497</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J12" t="n">
-        <v>189.8178475575842</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K12" t="n">
-        <v>324.428935217844</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177245</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M12" t="n">
-        <v>509.065366204059</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762074</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405676</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378626</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.4624964168761</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R12" t="n">
-        <v>124.7417227624141</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000176</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H13" t="n">
-        <v>14.97566335231073</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335773</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J13" t="n">
-        <v>119.0856174753788</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K13" t="n">
-        <v>195.694251168232</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L13" t="n">
-        <v>250.4212663227909</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M13" t="n">
-        <v>264.0341136849628</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067959</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154673</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P13" t="n">
-        <v>203.7180217169138</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q13" t="n">
-        <v>141.0437987097485</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759588</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S13" t="n">
-        <v>29.3541376752348</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069564</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.755034742181061</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H14" t="n">
-        <v>38.4562495533618</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I14" t="n">
-        <v>144.7659768979355</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J14" t="n">
-        <v>318.7038799491901</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857145</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L14" t="n">
-        <v>592.5726450767382</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730006</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342227</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166597</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190646</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.5015080147053</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R14" t="n">
-        <v>235.8772011235313</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S14" t="n">
-        <v>85.567854187451</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T14" t="n">
-        <v>16.4376645838976</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.009120711347161</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H15" t="n">
-        <v>19.40387634380021</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436497</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J15" t="n">
-        <v>189.8178475575842</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K15" t="n">
-        <v>324.428935217844</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177245</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M15" t="n">
-        <v>509.065366204059</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762074</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405676</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378626</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.4624964168761</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R15" t="n">
-        <v>124.7417227624141</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000176</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H16" t="n">
-        <v>14.97566335231073</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335773</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J16" t="n">
-        <v>119.0856174753788</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K16" t="n">
-        <v>195.694251168232</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L16" t="n">
-        <v>250.4212663227909</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M16" t="n">
-        <v>264.0341136849628</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N16" t="n">
-        <v>257.7559726067959</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O16" t="n">
-        <v>238.0793597154673</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P16" t="n">
-        <v>203.7180217169138</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q16" t="n">
-        <v>141.0437987097485</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759588</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S16" t="n">
-        <v>29.3541376752348</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069564</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.755034742181061</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H17" t="n">
-        <v>38.4562495533618</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I17" t="n">
-        <v>144.7659768979355</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J17" t="n">
-        <v>318.7038799491901</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K17" t="n">
-        <v>477.6545005857145</v>
+        <v>383.5191561611372</v>
       </c>
       <c r="L17" t="n">
-        <v>592.5726450767382</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M17" t="n">
-        <v>659.3512441730006</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N17" t="n">
-        <v>670.0202366342227</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O17" t="n">
-        <v>632.6811099166597</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P17" t="n">
-        <v>539.9786897190646</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q17" t="n">
-        <v>405.5015080147053</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R17" t="n">
-        <v>235.8772011235313</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S17" t="n">
-        <v>85.567854187451</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T17" t="n">
-        <v>16.4376645838976</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.009120711347161</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H18" t="n">
-        <v>19.40387634380021</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I18" t="n">
-        <v>69.17367361436497</v>
+        <v>55.54104253307773</v>
       </c>
       <c r="J18" t="n">
-        <v>189.8178475575842</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K18" t="n">
-        <v>324.428935217844</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L18" t="n">
-        <v>436.2347404177245</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M18" t="n">
-        <v>509.065366204059</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N18" t="n">
-        <v>522.5388116762074</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O18" t="n">
-        <v>478.0209264405676</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P18" t="n">
-        <v>383.6539365378626</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q18" t="n">
-        <v>256.4624964168761</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R18" t="n">
-        <v>124.7417227624141</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>37.31853601997904</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T18" t="n">
-        <v>8.098166376000176</v>
+        <v>6.502193386993428</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H19" t="n">
-        <v>14.97566335231073</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I19" t="n">
-        <v>50.65387972335773</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J19" t="n">
-        <v>119.0856174753788</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K19" t="n">
-        <v>195.694251168232</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L19" t="n">
-        <v>250.4212663227909</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M19" t="n">
-        <v>264.0341136849628</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N19" t="n">
-        <v>257.7559726067959</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O19" t="n">
-        <v>238.0793597154673</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P19" t="n">
-        <v>203.7180217169138</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q19" t="n">
-        <v>141.0437987097485</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R19" t="n">
-        <v>75.73581895759588</v>
+        <v>60.80993132519963</v>
       </c>
       <c r="S19" t="n">
-        <v>29.3541376752348</v>
+        <v>23.56907366567078</v>
       </c>
       <c r="T19" t="n">
-        <v>7.196893431069564</v>
+        <v>5.778541795965189</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.755034742181059</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H20" t="n">
-        <v>38.45624955336179</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I20" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J20" t="n">
-        <v>318.70387994919</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K20" t="n">
-        <v>477.6545005857143</v>
+        <v>383.5191561611371</v>
       </c>
       <c r="L20" t="n">
-        <v>592.572645076738</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M20" t="n">
-        <v>659.3512441730004</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N20" t="n">
-        <v>670.0202366342224</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O20" t="n">
-        <v>632.6811099166595</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P20" t="n">
-        <v>539.9786897190645</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q20" t="n">
-        <v>405.5015080147052</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R20" t="n">
-        <v>235.8772011235312</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S20" t="n">
-        <v>85.56785418745098</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T20" t="n">
-        <v>16.4376645838976</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.00912071134716</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H21" t="n">
-        <v>19.40387634380021</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I21" t="n">
-        <v>69.17367361436494</v>
+        <v>55.54104253307773</v>
       </c>
       <c r="J21" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K21" t="n">
-        <v>324.4289352178438</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L21" t="n">
-        <v>436.2347404177244</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M21" t="n">
-        <v>509.0653662040588</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N21" t="n">
-        <v>522.5388116762072</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O21" t="n">
-        <v>478.0209264405675</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P21" t="n">
-        <v>383.6539365378625</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q21" t="n">
-        <v>256.4624964168761</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R21" t="n">
-        <v>124.7417227624141</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>37.31853601997902</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T21" t="n">
-        <v>8.098166376000172</v>
+        <v>6.502193386993428</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H22" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I22" t="n">
-        <v>50.65387972335771</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J22" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K22" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L22" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M22" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N22" t="n">
-        <v>257.7559726067959</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O22" t="n">
-        <v>238.0793597154673</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P22" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q22" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R22" t="n">
-        <v>75.73581895759585</v>
+        <v>60.80993132519963</v>
       </c>
       <c r="S22" t="n">
-        <v>29.35413767523479</v>
+        <v>23.56907366567078</v>
       </c>
       <c r="T22" t="n">
-        <v>7.196893431069562</v>
+        <v>5.778541795965189</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,43 +32703,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H23" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I23" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J23" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K23" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L23" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M23" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N23" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O23" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P23" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q23" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R23" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S23" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T23" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U23" t="n">
         <v>0.3004027793744847</v>
@@ -32782,10 +32782,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H24" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I24" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J24" t="n">
         <v>189.8178475575841</v>
@@ -32794,7 +32794,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L24" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M24" t="n">
         <v>509.0653662040588</v>
@@ -32803,25 +32803,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O24" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P24" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q24" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R24" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S24" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T24" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I25" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J25" t="n">
         <v>119.0856174753787</v>
@@ -32879,10 +32879,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N25" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O25" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P25" t="n">
         <v>203.7180217169137</v>
@@ -32894,13 +32894,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S25" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T25" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,34 +32937,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H26" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I26" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J26" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K26" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L26" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M26" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N26" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O26" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P26" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q26" t="n">
         <v>405.5015080147052</v>
@@ -32973,13 +32973,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S26" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T26" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H27" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I27" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J27" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K27" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L27" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M27" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N27" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O27" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P27" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q27" t="n">
         <v>256.4624964168761</v>
@@ -33052,10 +33052,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S27" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T27" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U27" t="n">
         <v>0.1321789941675764</v>
@@ -33101,19 +33101,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I28" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J28" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K28" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L28" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M28" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N28" t="n">
         <v>257.7559726067959</v>
@@ -33128,16 +33128,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R28" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S28" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T28" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225038</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407339</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L11" t="n">
-        <v>356.806230106751</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457279</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376318</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949729</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P11" t="n">
-        <v>308.7456939637951</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402558</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939913</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.98022089091748</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>451.0527332560636</v>
+        <v>172.7600739089027</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378504</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820407</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N12" t="n">
-        <v>391.1970995928741</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O12" t="n">
-        <v>335.4246819961232</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P12" t="n">
-        <v>514.7099619750476</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.4807223308546</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870598</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>173.4247593423491</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L13" t="n">
-        <v>278.011291583107</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M13" t="n">
-        <v>303.6179906468034</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860245</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O13" t="n">
-        <v>262.664487629507</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P13" t="n">
-        <v>200.9965809818073</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.88175545805409</v>
+        <v>6.560263827496654</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6579754225038</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407339</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L14" t="n">
-        <v>356.806230106751</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457279</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376318</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949729</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P14" t="n">
-        <v>308.7456939637951</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.1958181402558</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939913</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>189.0712562313263</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>379.9148430313211</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L15" t="n">
-        <v>297.6803606378504</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820407</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N15" t="n">
-        <v>391.1970995928741</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O15" t="n">
-        <v>335.4246819961232</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P15" t="n">
-        <v>249.6795291235324</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q15" t="n">
-        <v>326.5580100667037</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870598</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>173.4247593423491</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L16" t="n">
-        <v>278.011291583107</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M16" t="n">
-        <v>303.6179906468034</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N16" t="n">
-        <v>301.8881449860245</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O16" t="n">
-        <v>262.664487629507</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P16" t="n">
-        <v>200.9965809818073</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805409</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>137.6579754225038</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K17" t="n">
-        <v>257.5646495407339</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L17" t="n">
-        <v>356.806230106751</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M17" t="n">
-        <v>429.0050109457279</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N17" t="n">
-        <v>440.6071730376318</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O17" t="n">
-        <v>402.5828984949729</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P17" t="n">
-        <v>308.7456939637951</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.1958181402558</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R17" t="n">
-        <v>20.29166330939913</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>189.0712562313263</v>
+        <v>151.6622745597329</v>
       </c>
       <c r="K18" t="n">
-        <v>186.587496243485</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L18" t="n">
-        <v>297.6803606378504</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M18" t="n">
-        <v>366.9313322820407</v>
+        <v>266.6055873691791</v>
       </c>
       <c r="N18" t="n">
-        <v>391.1970995928741</v>
+        <v>288.2160307407401</v>
       </c>
       <c r="O18" t="n">
-        <v>335.4246819961232</v>
+        <v>241.2171229812711</v>
       </c>
       <c r="P18" t="n">
-        <v>418.4229873015963</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q18" t="n">
-        <v>326.5580100667037</v>
+        <v>213.2973839334707</v>
       </c>
       <c r="R18" t="n">
-        <v>24.58388860977098</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.72643735870598</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K19" t="n">
-        <v>173.4247593423491</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L19" t="n">
-        <v>278.011291583107</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M19" t="n">
-        <v>303.6179906468034</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N19" t="n">
-        <v>301.8881449860245</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O19" t="n">
-        <v>262.664487629507</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P19" t="n">
-        <v>200.9965809818073</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.88175545805409</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.6579754225037</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K20" t="n">
-        <v>257.5646495407337</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L20" t="n">
-        <v>356.8062301067508</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M20" t="n">
-        <v>429.0050109457277</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N20" t="n">
-        <v>440.6071730376315</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O20" t="n">
-        <v>402.5828984949727</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P20" t="n">
-        <v>308.745693963795</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.1958181402557</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R20" t="n">
-        <v>20.29166330939904</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>189.0712562313263</v>
+        <v>25.57123921932407</v>
       </c>
       <c r="K21" t="n">
-        <v>355.3309544215493</v>
+        <v>186.0231941729579</v>
       </c>
       <c r="L21" t="n">
-        <v>297.6803606378502</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M21" t="n">
-        <v>366.9313322820405</v>
+        <v>266.6055873691791</v>
       </c>
       <c r="N21" t="n">
-        <v>391.1970995928739</v>
+        <v>288.2160307407401</v>
       </c>
       <c r="O21" t="n">
-        <v>335.424681996123</v>
+        <v>241.2171229812711</v>
       </c>
       <c r="P21" t="n">
-        <v>249.6795291235323</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q21" t="n">
-        <v>326.5580100667037</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R21" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.72643735870594</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K22" t="n">
-        <v>173.4247593423491</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L22" t="n">
-        <v>278.0112915831069</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M22" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N22" t="n">
-        <v>301.8881449860245</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O22" t="n">
-        <v>262.6644876295069</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P22" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.88175545805403</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K23" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L23" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M23" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N23" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O23" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P23" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q23" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R23" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K24" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313207</v>
       </c>
       <c r="L24" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M24" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N24" t="n">
-        <v>530.1364971039799</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O24" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P24" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K25" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L25" t="n">
         <v>278.0112915831069</v>
@@ -36527,7 +36527,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N25" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O25" t="n">
         <v>262.6644876295069</v>
@@ -36536,7 +36536,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q25" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K26" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L26" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M26" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N26" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O26" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P26" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q26" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R26" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K27" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L27" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M27" t="n">
-        <v>591.2668520422184</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N27" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O27" t="n">
-        <v>640.5848321000389</v>
+        <v>528.7520287839581</v>
       </c>
       <c r="P27" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q27" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K28" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L28" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M28" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N28" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O28" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P28" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q28" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K30" t="n">
         <v>451.0527332560634</v>
@@ -36928,10 +36928,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P30" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q30" t="n">
-        <v>255.4201198419607</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K33" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676406</v>
       </c>
       <c r="L33" t="n">
-        <v>491.0077074256851</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M33" t="n">
         <v>366.9313322820405</v>
@@ -37165,10 +37165,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P33" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q33" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K36" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M36" t="n">
-        <v>577.9642335061964</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N36" t="n">
         <v>391.1970995928739</v>
@@ -37402,13 +37402,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P36" t="n">
-        <v>568.1422977634695</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q36" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K39" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L39" t="n">
-        <v>640.5848321000387</v>
+        <v>352.6335057535154</v>
       </c>
       <c r="M39" t="n">
         <v>366.9313322820405</v>
@@ -37642,7 +37642,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
-        <v>176.9808853923499</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L42" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M42" t="n">
         <v>366.9313322820405</v>
@@ -37879,7 +37879,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q42" t="n">
-        <v>176.9808853923499</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K45" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L45" t="n">
-        <v>491.0077074256851</v>
+        <v>328.0496171437446</v>
       </c>
       <c r="M45" t="n">
         <v>366.9313322820405</v>
@@ -38119,7 +38119,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
